--- a/a-results3.xlsx
+++ b/a-results3.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,46 +547,46 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15615</v>
+        <v>15613</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Heri Dati</t>
+          <t>Steve Coup</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D6" t="n">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="E6" t="n">
+        <v>68</v>
+      </c>
+      <c r="F6" t="n">
+        <v>48</v>
+      </c>
+      <c r="G6" t="n">
+        <v>70</v>
+      </c>
+      <c r="H6" t="n">
+        <v>81</v>
+      </c>
+      <c r="I6" t="n">
+        <v>54</v>
+      </c>
+      <c r="J6" t="n">
         <v>89</v>
       </c>
-      <c r="F6" t="n">
-        <v>79</v>
-      </c>
-      <c r="G6" t="n">
-        <v>80</v>
-      </c>
-      <c r="H6" t="n">
-        <v>86</v>
-      </c>
-      <c r="I6" t="n">
-        <v>90</v>
-      </c>
-      <c r="J6" t="n">
-        <v>87</v>
-      </c>
       <c r="K6" t="n">
-        <v>679</v>
+        <v>534</v>
       </c>
       <c r="L6" t="n">
-        <v>84.875</v>
+        <v>66.75</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>A-</t>
+          <t>B-</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -603,38 +603,38 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E7" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="G7" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="H7" t="n">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I7" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="J7" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K7" t="n">
-        <v>610</v>
+        <v>531</v>
       </c>
       <c r="L7" t="n">
-        <v>76.25</v>
+        <v>66.375</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B-</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -643,46 +643,46 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15613</v>
+        <v>15612</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Steve Coup</t>
+          <t>Bostwald Kite</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D8" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E8" t="n">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="F8" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="G8" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H8" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J8" t="n">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="K8" t="n">
-        <v>577</v>
+        <v>503</v>
       </c>
       <c r="L8" t="n">
-        <v>72.125</v>
+        <v>62.875</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C+</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -690,105 +690,103 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>15612</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SubjectTotal</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bostwald Kite</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="D9" t="n">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="E9" t="n">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="F9" t="n">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="G9" t="n">
-        <v>89</v>
+        <v>247</v>
       </c>
       <c r="H9" t="n">
-        <v>56</v>
+        <v>205</v>
       </c>
       <c r="I9" t="n">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="J9" t="n">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="K9" t="n">
-        <v>570</v>
+        <v>1568</v>
       </c>
       <c r="L9" t="n">
-        <v>71.25</v>
+        <v>196</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>4</v>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>15614</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SubjectAverage</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nderi Neti</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>76</v>
+        <v>68.66666666666667</v>
       </c>
       <c r="D10" t="n">
-        <v>56</v>
+        <v>62.33333333333334</v>
       </c>
       <c r="E10" t="n">
-        <v>76</v>
+        <v>51.33333333333334</v>
       </c>
       <c r="F10" t="n">
-        <v>45</v>
+        <v>55.66666666666666</v>
       </c>
       <c r="G10" t="n">
-        <v>67</v>
+        <v>82.33333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>56</v>
+        <v>68.33333333333333</v>
       </c>
       <c r="I10" t="n">
-        <v>78</v>
+        <v>52.66666666666666</v>
       </c>
       <c r="J10" t="n">
-        <v>90</v>
+        <v>81.33333333333333</v>
       </c>
       <c r="K10" t="n">
-        <v>544</v>
+        <v>522.6666666666666</v>
       </c>
       <c r="L10" t="n">
-        <v>68</v>
+        <v>65.33333333333333</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>B-</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>5</v>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SubjectTotal</t>
+          <t>SubjectGrades</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -796,151 +794,57 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>90</v>
-      </c>
-      <c r="D11" t="n">
-        <v>78</v>
-      </c>
-      <c r="E11" t="n">
-        <v>89</v>
-      </c>
-      <c r="F11" t="n">
-        <v>79</v>
-      </c>
-      <c r="G11" t="n">
-        <v>80</v>
-      </c>
-      <c r="H11" t="n">
-        <v>86</v>
-      </c>
-      <c r="I11" t="n">
-        <v>90</v>
-      </c>
-      <c r="J11" t="n">
-        <v>87</v>
-      </c>
-      <c r="K11" t="n">
-        <v>679</v>
-      </c>
-      <c r="L11" t="n">
-        <v>84.875</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
       </c>
       <c r="M11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SubjectAverage</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>90</v>
-      </c>
-      <c r="D12" t="n">
-        <v>78</v>
-      </c>
-      <c r="E12" t="n">
-        <v>89</v>
-      </c>
-      <c r="F12" t="n">
-        <v>79</v>
-      </c>
-      <c r="G12" t="n">
-        <v>80</v>
-      </c>
-      <c r="H12" t="n">
-        <v>86</v>
-      </c>
-      <c r="I12" t="n">
-        <v>90</v>
-      </c>
-      <c r="J12" t="n">
-        <v>87</v>
-      </c>
-      <c r="K12" t="n">
-        <v>679</v>
-      </c>
-      <c r="L12" t="n">
-        <v>84.875</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SubjectGrades</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>B+</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>A-</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>B+</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>A-</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>A-</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>A-</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>A-</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/a-results3.xlsx
+++ b/a-results3.xlsx
@@ -748,34 +748,34 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>68.66666666666667</v>
+        <v>103</v>
       </c>
       <c r="D10" t="n">
-        <v>62.33333333333334</v>
+        <v>93.5</v>
       </c>
       <c r="E10" t="n">
-        <v>51.33333333333334</v>
+        <v>77</v>
       </c>
       <c r="F10" t="n">
-        <v>55.66666666666666</v>
+        <v>83.5</v>
       </c>
       <c r="G10" t="n">
-        <v>82.33333333333333</v>
+        <v>123.5</v>
       </c>
       <c r="H10" t="n">
-        <v>68.33333333333333</v>
+        <v>102.5</v>
       </c>
       <c r="I10" t="n">
-        <v>52.66666666666666</v>
+        <v>79</v>
       </c>
       <c r="J10" t="n">
-        <v>81.33333333333333</v>
+        <v>122</v>
       </c>
       <c r="K10" t="n">
-        <v>522.6666666666666</v>
+        <v>784</v>
       </c>
       <c r="L10" t="n">
-        <v>65.33333333333333</v>
+        <v>98</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -796,42 +796,42 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>B-</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>C-</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A-</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A-</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>B-</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>C-</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>A-</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>B-</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">

--- a/a-results3.xlsx
+++ b/a-results3.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,13 +576,13 @@
         <v>54</v>
       </c>
       <c r="J6" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K6" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L6" t="n">
-        <v>66.75</v>
+        <v>66.875</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F7" t="n">
         <v>59</v>
@@ -627,10 +627,10 @@
         <v>86</v>
       </c>
       <c r="K7" t="n">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="L7" t="n">
-        <v>66.375</v>
+        <v>65.125</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -642,57 +642,56 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>15612</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SubjectTotal</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bostwald Kite</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="D8" t="n">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="F8" t="n">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="G8" t="n">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="H8" t="n">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="I8" t="n">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="J8" t="n">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="K8" t="n">
-        <v>503</v>
+        <v>1056</v>
       </c>
       <c r="L8" t="n">
-        <v>62.875</v>
+        <v>132</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C+</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>3</v>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SubjectTotal</t>
+          <t>SubjectAverage</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -701,34 +700,34 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="D9" t="n">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="E9" t="n">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="F9" t="n">
-        <v>167</v>
+        <v>53.5</v>
       </c>
       <c r="G9" t="n">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="H9" t="n">
-        <v>205</v>
+        <v>78.5</v>
       </c>
       <c r="I9" t="n">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="J9" t="n">
-        <v>244</v>
+        <v>88</v>
       </c>
       <c r="K9" t="n">
-        <v>1568</v>
+        <v>528</v>
       </c>
       <c r="L9" t="n">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -739,7 +738,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SubjectAverage</t>
+          <t>SubjectGrades</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -747,104 +746,57 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>103</v>
-      </c>
-      <c r="D10" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>77</v>
-      </c>
-      <c r="F10" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="G10" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>79</v>
-      </c>
-      <c r="J10" t="n">
-        <v>122</v>
-      </c>
-      <c r="K10" t="n">
-        <v>784</v>
-      </c>
-      <c r="L10" t="n">
-        <v>98</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>D+</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
       </c>
       <c r="M10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SubjectGrades</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>B+</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>A-</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>B+</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/a-results3.xlsx
+++ b/a-results3.xlsx
@@ -561,7 +561,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F6" t="n">
         <v>48</v>
@@ -579,10 +579,10 @@
         <v>90</v>
       </c>
       <c r="K6" t="n">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="L6" t="n">
-        <v>66.875</v>
+        <v>68.125</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F7" t="n">
         <v>59</v>
@@ -627,10 +627,10 @@
         <v>86</v>
       </c>
       <c r="K7" t="n">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="L7" t="n">
-        <v>65.125</v>
+        <v>67.625</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>108</v>
       </c>
       <c r="E8" t="n">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="F8" t="n">
         <v>107</v>
@@ -677,10 +677,10 @@
         <v>176</v>
       </c>
       <c r="K8" t="n">
-        <v>1056</v>
+        <v>1086</v>
       </c>
       <c r="L8" t="n">
-        <v>132</v>
+        <v>135.75</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="n">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F9" t="n">
         <v>53.5</v>
@@ -724,10 +724,10 @@
         <v>88</v>
       </c>
       <c r="K9" t="n">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="L9" t="n">
-        <v>66</v>
+        <v>67.875</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>C-</t>
+          <t>B-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">

--- a/a-results3.xlsx
+++ b/a-results3.xlsx
@@ -547,46 +547,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15613</v>
+        <v>15611</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Steve Coup</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>80</v>
+          <t>dan</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>44</v>
-      </c>
-      <c r="E6" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F6" t="n">
-        <v>48</v>
-      </c>
-      <c r="G6" t="n">
-        <v>70</v>
-      </c>
-      <c r="H6" t="n">
-        <v>81</v>
-      </c>
-      <c r="I6" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="J6" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="K6" t="n">
-        <v>545</v>
+        <v>237</v>
       </c>
       <c r="L6" t="n">
-        <v>68.125</v>
+        <v>29.625</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>B-</t>
+          <t>E</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -595,46 +580,31 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15611</v>
+        <v>15612</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fredrick Ndote</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>70</v>
+          <t>tes</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>64</v>
-      </c>
-      <c r="E7" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F7" t="n">
-        <v>59</v>
-      </c>
-      <c r="G7" t="n">
-        <v>90</v>
-      </c>
-      <c r="H7" t="n">
-        <v>76</v>
-      </c>
-      <c r="I7" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="J7" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K7" t="n">
-        <v>541</v>
+        <v>215</v>
       </c>
       <c r="L7" t="n">
-        <v>67.625</v>
+        <v>26.875</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>B-</t>
+          <t>E</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -653,34 +623,34 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="E8" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="G8" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="K8" t="n">
-        <v>1086</v>
+        <v>452</v>
       </c>
       <c r="L8" t="n">
-        <v>135.75</v>
+        <v>56.5</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -700,34 +670,34 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E9" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>53.5</v>
+        <v>61</v>
       </c>
       <c r="G9" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>78.5</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K9" t="n">
-        <v>543</v>
+        <v>226</v>
       </c>
       <c r="L9" t="n">
-        <v>67.875</v>
+        <v>28.25</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -748,44 +718,44 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>C-</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>B-</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>C-</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>A-</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>B+</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>D+</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>A-</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>-</t>
@@ -793,7 +763,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>B-</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">

--- a/a-results3.xlsx
+++ b/a-results3.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,27 +547,24 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15611</v>
+        <v>15612</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dan</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>87</v>
-      </c>
-      <c r="F6" t="n">
-        <v>74</v>
-      </c>
-      <c r="J6" t="n">
-        <v>76</v>
+          <t>WER</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>89</v>
+      </c>
+      <c r="G6" t="n">
+        <v>78</v>
       </c>
       <c r="K6" t="n">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="L6" t="n">
-        <v>29.625</v>
+        <v>20.875</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -580,27 +577,24 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15612</v>
+        <v>15611</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>tes</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>89</v>
-      </c>
-      <c r="F7" t="n">
-        <v>48</v>
-      </c>
-      <c r="J7" t="n">
-        <v>78</v>
+          <t>SAD</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>54</v>
+      </c>
+      <c r="G7" t="n">
+        <v>56</v>
       </c>
       <c r="K7" t="n">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="L7" t="n">
-        <v>26.875</v>
+        <v>13.75</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -626,16 +620,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="F8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -644,15 +638,20 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>452</v>
+        <v>277</v>
       </c>
       <c r="L8" t="n">
-        <v>56.5</v>
+        <v>34.625</v>
       </c>
       <c r="M8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -673,16 +672,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>71.5</v>
       </c>
       <c r="F9" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -691,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>226</v>
+        <v>138.5</v>
       </c>
       <c r="L9" t="n">
-        <v>28.25</v>
+        <v>17.3125</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -723,39 +722,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A-</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>C+</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>E</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>B+</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>-</t>
@@ -767,6 +766,62 @@
         </is>
       </c>
       <c r="M10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SubjectRank</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/a-results3.xlsx
+++ b/a-results3.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,28 +547,46 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15612</v>
+        <v>15630</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WER</t>
-        </is>
+          <t>Balito Behil</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>92</v>
+      </c>
+      <c r="D6" t="n">
+        <v>91</v>
       </c>
       <c r="E6" t="n">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="F6" t="n">
+        <v>95</v>
       </c>
       <c r="G6" t="n">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="H6" t="n">
+        <v>73</v>
+      </c>
+      <c r="I6" t="n">
+        <v>99</v>
+      </c>
+      <c r="J6" t="n">
+        <v>79</v>
       </c>
       <c r="K6" t="n">
-        <v>167</v>
+        <v>698</v>
       </c>
       <c r="L6" t="n">
-        <v>20.875</v>
+        <v>87.25</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A-</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -577,28 +595,46 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15611</v>
+        <v>15631</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAD</t>
-        </is>
+          <t>Teti Nderi</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>72</v>
+      </c>
+      <c r="D7" t="n">
+        <v>85</v>
       </c>
       <c r="E7" t="n">
-        <v>54</v>
+        <v>92</v>
+      </c>
+      <c r="F7" t="n">
+        <v>70</v>
       </c>
       <c r="G7" t="n">
-        <v>56</v>
+        <v>97</v>
+      </c>
+      <c r="H7" t="n">
+        <v>80</v>
+      </c>
+      <c r="I7" t="n">
+        <v>76</v>
+      </c>
+      <c r="J7" t="n">
+        <v>98</v>
       </c>
       <c r="K7" t="n">
-        <v>110</v>
+        <v>670</v>
       </c>
       <c r="L7" t="n">
-        <v>13.75</v>
+        <v>83.75</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A-</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -606,222 +642,666 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>15628</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Seti Kitoti</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>88</v>
+      </c>
+      <c r="D8" t="n">
+        <v>69</v>
+      </c>
+      <c r="E8" t="n">
+        <v>70</v>
+      </c>
+      <c r="F8" t="n">
+        <v>65</v>
+      </c>
+      <c r="G8" t="n">
+        <v>83</v>
+      </c>
+      <c r="H8" t="n">
+        <v>77</v>
+      </c>
+      <c r="I8" t="n">
+        <v>93</v>
+      </c>
+      <c r="J8" t="n">
+        <v>67</v>
+      </c>
+      <c r="K8" t="n">
+        <v>612</v>
+      </c>
+      <c r="L8" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>15625</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bolivia Shesi</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" t="n">
+        <v>88</v>
+      </c>
+      <c r="E9" t="n">
+        <v>85</v>
+      </c>
+      <c r="F9" t="n">
+        <v>72</v>
+      </c>
+      <c r="G9" t="n">
+        <v>82</v>
+      </c>
+      <c r="H9" t="n">
+        <v>43</v>
+      </c>
+      <c r="I9" t="n">
+        <v>86</v>
+      </c>
+      <c r="J9" t="n">
+        <v>94</v>
+      </c>
+      <c r="K9" t="n">
+        <v>600</v>
+      </c>
+      <c r="L9" t="n">
+        <v>75</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>15629</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Many Matike</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>85</v>
+      </c>
+      <c r="D10" t="n">
+        <v>81</v>
+      </c>
+      <c r="E10" t="n">
+        <v>86</v>
+      </c>
+      <c r="F10" t="n">
+        <v>54</v>
+      </c>
+      <c r="G10" t="n">
+        <v>71</v>
+      </c>
+      <c r="H10" t="n">
+        <v>80</v>
+      </c>
+      <c r="I10" t="n">
+        <v>53</v>
+      </c>
+      <c r="J10" t="n">
+        <v>78</v>
+      </c>
+      <c r="K10" t="n">
+        <v>588</v>
+      </c>
+      <c r="L10" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>15626</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tahmeed Ndero</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>84</v>
+      </c>
+      <c r="D11" t="n">
+        <v>51</v>
+      </c>
+      <c r="E11" t="n">
+        <v>55</v>
+      </c>
+      <c r="F11" t="n">
+        <v>63</v>
+      </c>
+      <c r="G11" t="n">
+        <v>64</v>
+      </c>
+      <c r="H11" t="n">
+        <v>86</v>
+      </c>
+      <c r="I11" t="n">
+        <v>86</v>
+      </c>
+      <c r="J11" t="n">
+        <v>89</v>
+      </c>
+      <c r="K11" t="n">
+        <v>578</v>
+      </c>
+      <c r="L11" t="n">
+        <v>72.25</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>15627</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dodi Biru</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>77</v>
+      </c>
+      <c r="D12" t="n">
+        <v>94</v>
+      </c>
+      <c r="E12" t="n">
+        <v>78</v>
+      </c>
+      <c r="F12" t="n">
+        <v>54</v>
+      </c>
+      <c r="G12" t="n">
+        <v>56</v>
+      </c>
+      <c r="H12" t="n">
+        <v>63</v>
+      </c>
+      <c r="I12" t="n">
+        <v>59</v>
+      </c>
+      <c r="J12" t="n">
+        <v>61</v>
+      </c>
+      <c r="K12" t="n">
+        <v>542</v>
+      </c>
+      <c r="L12" t="n">
+        <v>67.75</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>15614</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Leonard Shiunde</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>69</v>
+      </c>
+      <c r="D13" t="n">
+        <v>89</v>
+      </c>
+      <c r="E13" t="n">
+        <v>54</v>
+      </c>
+      <c r="F13" t="n">
+        <v>36</v>
+      </c>
+      <c r="G13" t="n">
+        <v>80</v>
+      </c>
+      <c r="H13" t="n">
+        <v>76</v>
+      </c>
+      <c r="I13" t="n">
+        <v>80</v>
+      </c>
+      <c r="J13" t="n">
+        <v>54</v>
+      </c>
+      <c r="K13" t="n">
+        <v>538</v>
+      </c>
+      <c r="L13" t="n">
+        <v>67.25</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>15613</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Steve Coup</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>80</v>
+      </c>
+      <c r="D14" t="n">
+        <v>44</v>
+      </c>
+      <c r="E14" t="n">
+        <v>68</v>
+      </c>
+      <c r="F14" t="n">
+        <v>48</v>
+      </c>
+      <c r="G14" t="n">
+        <v>70</v>
+      </c>
+      <c r="H14" t="n">
+        <v>81</v>
+      </c>
+      <c r="I14" t="n">
+        <v>54</v>
+      </c>
+      <c r="J14" t="n">
+        <v>89</v>
+      </c>
+      <c r="K14" t="n">
+        <v>534</v>
+      </c>
+      <c r="L14" t="n">
+        <v>66.75</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15612</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bostwald Kite</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>56</v>
+      </c>
+      <c r="D15" t="n">
+        <v>79</v>
+      </c>
+      <c r="E15" t="n">
+        <v>36</v>
+      </c>
+      <c r="F15" t="n">
+        <v>60</v>
+      </c>
+      <c r="G15" t="n">
+        <v>87</v>
+      </c>
+      <c r="H15" t="n">
+        <v>48</v>
+      </c>
+      <c r="I15" t="n">
+        <v>68</v>
+      </c>
+      <c r="J15" t="n">
+        <v>69</v>
+      </c>
+      <c r="K15" t="n">
+        <v>503</v>
+      </c>
+      <c r="L15" t="n">
+        <v>62.875</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15632</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cheti Nzuri</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>94</v>
+      </c>
+      <c r="D16" t="n">
+        <v>80</v>
+      </c>
+      <c r="G16" t="n">
+        <v>89</v>
+      </c>
+      <c r="J16" t="n">
+        <v>83</v>
+      </c>
+      <c r="K16" t="n">
+        <v>346</v>
+      </c>
+      <c r="L16" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15633</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Zediru Betike</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>92</v>
+      </c>
+      <c r="D17" t="n">
+        <v>82</v>
+      </c>
+      <c r="G17" t="n">
+        <v>90</v>
+      </c>
+      <c r="J17" t="n">
+        <v>81</v>
+      </c>
+      <c r="K17" t="n">
+        <v>345</v>
+      </c>
+      <c r="L17" t="n">
+        <v>43.125</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>SubjectTotal</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>143</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>134</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>277</v>
-      </c>
-      <c r="L8" t="n">
-        <v>34.625</v>
-      </c>
-      <c r="M8" t="inlineStr">
+      <c r="C18" t="n">
+        <v>939</v>
+      </c>
+      <c r="D18" t="n">
+        <v>933</v>
+      </c>
+      <c r="E18" t="n">
+        <v>712</v>
+      </c>
+      <c r="F18" t="n">
+        <v>617</v>
+      </c>
+      <c r="G18" t="n">
+        <v>950</v>
+      </c>
+      <c r="H18" t="n">
+        <v>707</v>
+      </c>
+      <c r="I18" t="n">
+        <v>754</v>
+      </c>
+      <c r="J18" t="n">
+        <v>942</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6554</v>
+      </c>
+      <c r="L18" t="n">
+        <v>819.25</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>SubjectAverage</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>67</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>138.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>17.3125</v>
-      </c>
-      <c r="M9" t="inlineStr">
+      <c r="C19" t="n">
+        <v>78.25</v>
+      </c>
+      <c r="D19" t="n">
+        <v>77.75</v>
+      </c>
+      <c r="G19" t="n">
+        <v>79.16666666666667</v>
+      </c>
+      <c r="J19" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>546.1666666666666</v>
+      </c>
+      <c r="L19" t="n">
+        <v>68.27083333333333</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>SubjectGrades</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SubjectRank</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SubjectRank</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5</v>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
